--- a/public/shipment_line_uploads/shipment_lines.xlsx
+++ b/public/shipment_line_uploads/shipment_lines.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="181">
   <si>
     <t>shipment_line_number</t>
   </si>
@@ -445,6 +445,129 @@
   </si>
   <si>
     <t>DHL</t>
+  </si>
+  <si>
+    <t>SL000059</t>
+  </si>
+  <si>
+    <t>SL000060</t>
+  </si>
+  <si>
+    <t>SL000061</t>
+  </si>
+  <si>
+    <t>SL000062</t>
+  </si>
+  <si>
+    <t>SL000063</t>
+  </si>
+  <si>
+    <t>SL000064</t>
+  </si>
+  <si>
+    <t>SL000065</t>
+  </si>
+  <si>
+    <t>SL000066</t>
+  </si>
+  <si>
+    <t>SL000067</t>
+  </si>
+  <si>
+    <t>SL000068</t>
+  </si>
+  <si>
+    <t>SL000069</t>
+  </si>
+  <si>
+    <t>SL000070</t>
+  </si>
+  <si>
+    <t>SL000071</t>
+  </si>
+  <si>
+    <t>SL000072</t>
+  </si>
+  <si>
+    <t>SL000073</t>
+  </si>
+  <si>
+    <t>SL000074</t>
+  </si>
+  <si>
+    <t>SL000075</t>
+  </si>
+  <si>
+    <t>SL000076</t>
+  </si>
+  <si>
+    <t>SL000077</t>
+  </si>
+  <si>
+    <t>SL000078</t>
+  </si>
+  <si>
+    <t>SL000079</t>
+  </si>
+  <si>
+    <t>SL000080</t>
+  </si>
+  <si>
+    <t>SL000081</t>
+  </si>
+  <si>
+    <t>SL000082</t>
+  </si>
+  <si>
+    <t>SL000083</t>
+  </si>
+  <si>
+    <t>SL000084</t>
+  </si>
+  <si>
+    <t>SL000085</t>
+  </si>
+  <si>
+    <t>SL000086</t>
+  </si>
+  <si>
+    <t>SL000087</t>
+  </si>
+  <si>
+    <t>SL000088</t>
+  </si>
+  <si>
+    <t>SL000089</t>
+  </si>
+  <si>
+    <t>SL000090</t>
+  </si>
+  <si>
+    <t>SL000091</t>
+  </si>
+  <si>
+    <t>SL000092</t>
+  </si>
+  <si>
+    <t>SL000093</t>
+  </si>
+  <si>
+    <t>SL000094</t>
+  </si>
+  <si>
+    <t>SL000095</t>
+  </si>
+  <si>
+    <t>SL000096</t>
+  </si>
+  <si>
+    <t>SL000097</t>
+  </si>
+  <si>
+    <t>SL000098</t>
+  </si>
+  <si>
+    <t>SL000099</t>
   </si>
 </sst>
 </file>
@@ -772,17 +895,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -2783,6 +2906,1338 @@
       <c r="L59" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60">
+        <v>150</v>
+      </c>
+      <c r="C60" s="2">
+        <v>41902</v>
+      </c>
+      <c r="D60" s="2">
+        <v>41893</v>
+      </c>
+      <c r="E60" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s">
+        <v>78</v>
+      </c>
+      <c r="J60" t="s">
+        <v>139</v>
+      </c>
+      <c r="K60" t="s">
+        <v>73</v>
+      </c>
+      <c r="L60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61">
+        <v>123</v>
+      </c>
+      <c r="C61" s="2">
+        <v>41903</v>
+      </c>
+      <c r="D61" s="2">
+        <v>41894</v>
+      </c>
+      <c r="E61" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>139</v>
+      </c>
+      <c r="K61" t="s">
+        <v>73</v>
+      </c>
+      <c r="L61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62">
+        <v>122</v>
+      </c>
+      <c r="C62" s="2">
+        <v>41904</v>
+      </c>
+      <c r="D62" s="2">
+        <v>41895</v>
+      </c>
+      <c r="E62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" t="s">
+        <v>139</v>
+      </c>
+      <c r="K62" t="s">
+        <v>73</v>
+      </c>
+      <c r="L62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63">
+        <v>131</v>
+      </c>
+      <c r="C63" s="2">
+        <v>41905</v>
+      </c>
+      <c r="D63" s="2">
+        <v>41896</v>
+      </c>
+      <c r="E63" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s">
+        <v>139</v>
+      </c>
+      <c r="K63" t="s">
+        <v>73</v>
+      </c>
+      <c r="L63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64">
+        <v>142</v>
+      </c>
+      <c r="C64" s="2">
+        <v>41906</v>
+      </c>
+      <c r="D64" s="2">
+        <v>41897</v>
+      </c>
+      <c r="E64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s">
+        <v>139</v>
+      </c>
+      <c r="K64" t="s">
+        <v>73</v>
+      </c>
+      <c r="L64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65">
+        <v>151</v>
+      </c>
+      <c r="C65" s="2">
+        <v>41907</v>
+      </c>
+      <c r="D65" s="2">
+        <v>41898</v>
+      </c>
+      <c r="E65" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s">
+        <v>78</v>
+      </c>
+      <c r="J65" t="s">
+        <v>139</v>
+      </c>
+      <c r="K65" t="s">
+        <v>73</v>
+      </c>
+      <c r="L65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66">
+        <v>121</v>
+      </c>
+      <c r="C66" s="2">
+        <v>41908</v>
+      </c>
+      <c r="D66" s="2">
+        <v>41899</v>
+      </c>
+      <c r="E66" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" t="s">
+        <v>139</v>
+      </c>
+      <c r="K66" t="s">
+        <v>73</v>
+      </c>
+      <c r="L66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67">
+        <v>141</v>
+      </c>
+      <c r="C67" s="2">
+        <v>41909</v>
+      </c>
+      <c r="D67" s="2">
+        <v>41900</v>
+      </c>
+      <c r="E67" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s">
+        <v>74</v>
+      </c>
+      <c r="J67" t="s">
+        <v>139</v>
+      </c>
+      <c r="K67" t="s">
+        <v>73</v>
+      </c>
+      <c r="L67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68">
+        <v>164</v>
+      </c>
+      <c r="C68" s="2">
+        <v>41910</v>
+      </c>
+      <c r="D68" s="2">
+        <v>41901</v>
+      </c>
+      <c r="E68" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" t="s">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68" t="s">
+        <v>139</v>
+      </c>
+      <c r="K68" t="s">
+        <v>73</v>
+      </c>
+      <c r="L68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69">
+        <v>171</v>
+      </c>
+      <c r="C69" s="2">
+        <v>41911</v>
+      </c>
+      <c r="D69" s="2">
+        <v>41902</v>
+      </c>
+      <c r="E69" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s">
+        <v>139</v>
+      </c>
+      <c r="K69" t="s">
+        <v>73</v>
+      </c>
+      <c r="L69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70">
+        <v>145</v>
+      </c>
+      <c r="C70" s="2">
+        <v>41912</v>
+      </c>
+      <c r="D70" s="2">
+        <v>41903</v>
+      </c>
+      <c r="E70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s">
+        <v>139</v>
+      </c>
+      <c r="K70" t="s">
+        <v>73</v>
+      </c>
+      <c r="L70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71">
+        <v>136</v>
+      </c>
+      <c r="C71" s="2">
+        <v>41913</v>
+      </c>
+      <c r="D71" s="2">
+        <v>41904</v>
+      </c>
+      <c r="E71" t="s">
+        <v>80</v>
+      </c>
+      <c r="F71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" t="s">
+        <v>139</v>
+      </c>
+      <c r="K71" t="s">
+        <v>73</v>
+      </c>
+      <c r="L71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72">
+        <v>127</v>
+      </c>
+      <c r="C72" s="2">
+        <v>41914</v>
+      </c>
+      <c r="D72" s="2">
+        <v>41905</v>
+      </c>
+      <c r="E72" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s">
+        <v>74</v>
+      </c>
+      <c r="J72" t="s">
+        <v>139</v>
+      </c>
+      <c r="K72" t="s">
+        <v>73</v>
+      </c>
+      <c r="L72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73">
+        <v>128</v>
+      </c>
+      <c r="C73" s="2">
+        <v>41915</v>
+      </c>
+      <c r="D73" s="2">
+        <v>41906</v>
+      </c>
+      <c r="E73" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s">
+        <v>139</v>
+      </c>
+      <c r="K73" t="s">
+        <v>73</v>
+      </c>
+      <c r="L73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74">
+        <v>123</v>
+      </c>
+      <c r="C74" s="2">
+        <v>41916</v>
+      </c>
+      <c r="D74" s="2">
+        <v>41907</v>
+      </c>
+      <c r="E74" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s">
+        <v>139</v>
+      </c>
+      <c r="K74" t="s">
+        <v>73</v>
+      </c>
+      <c r="L74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75">
+        <v>123</v>
+      </c>
+      <c r="C75" s="2">
+        <v>41917</v>
+      </c>
+      <c r="D75" s="2">
+        <v>41908</v>
+      </c>
+      <c r="E75" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s">
+        <v>78</v>
+      </c>
+      <c r="J75" t="s">
+        <v>139</v>
+      </c>
+      <c r="K75" t="s">
+        <v>73</v>
+      </c>
+      <c r="L75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76">
+        <v>122</v>
+      </c>
+      <c r="C76" s="2">
+        <v>41918</v>
+      </c>
+      <c r="D76" s="2">
+        <v>41909</v>
+      </c>
+      <c r="E76" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" t="s">
+        <v>139</v>
+      </c>
+      <c r="K76" t="s">
+        <v>73</v>
+      </c>
+      <c r="L76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77">
+        <v>131</v>
+      </c>
+      <c r="C77" s="2">
+        <v>41919</v>
+      </c>
+      <c r="D77" s="2">
+        <v>41910</v>
+      </c>
+      <c r="E77" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" t="s">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s">
+        <v>74</v>
+      </c>
+      <c r="J77" t="s">
+        <v>139</v>
+      </c>
+      <c r="K77" t="s">
+        <v>73</v>
+      </c>
+      <c r="L77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78">
+        <v>142</v>
+      </c>
+      <c r="C78" s="2">
+        <v>41920</v>
+      </c>
+      <c r="D78" s="2">
+        <v>41911</v>
+      </c>
+      <c r="E78" t="s">
+        <v>80</v>
+      </c>
+      <c r="F78" t="s">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K78" t="s">
+        <v>73</v>
+      </c>
+      <c r="L78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79">
+        <v>151</v>
+      </c>
+      <c r="C79" s="2">
+        <v>41921</v>
+      </c>
+      <c r="D79" s="2">
+        <v>41912</v>
+      </c>
+      <c r="E79" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s">
+        <v>139</v>
+      </c>
+      <c r="K79" t="s">
+        <v>73</v>
+      </c>
+      <c r="L79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80">
+        <v>121</v>
+      </c>
+      <c r="C80" s="2">
+        <v>41922</v>
+      </c>
+      <c r="D80" s="2">
+        <v>41913</v>
+      </c>
+      <c r="E80" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" t="s">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s">
+        <v>78</v>
+      </c>
+      <c r="J80" t="s">
+        <v>139</v>
+      </c>
+      <c r="K80" t="s">
+        <v>73</v>
+      </c>
+      <c r="L80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81">
+        <v>141</v>
+      </c>
+      <c r="C81" s="2">
+        <v>41923</v>
+      </c>
+      <c r="D81" s="2">
+        <v>41914</v>
+      </c>
+      <c r="E81" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s">
+        <v>139</v>
+      </c>
+      <c r="K81" t="s">
+        <v>73</v>
+      </c>
+      <c r="L81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82">
+        <v>164</v>
+      </c>
+      <c r="C82" s="2">
+        <v>41880</v>
+      </c>
+      <c r="D82" s="2">
+        <v>41877</v>
+      </c>
+      <c r="E82" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" t="s">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s">
+        <v>74</v>
+      </c>
+      <c r="J82" t="s">
+        <v>139</v>
+      </c>
+      <c r="K82" t="s">
+        <v>73</v>
+      </c>
+      <c r="L82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83">
+        <v>171</v>
+      </c>
+      <c r="C83" s="2">
+        <v>41902</v>
+      </c>
+      <c r="D83" s="2">
+        <v>41893</v>
+      </c>
+      <c r="E83" t="s">
+        <v>80</v>
+      </c>
+      <c r="F83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s">
+        <v>75</v>
+      </c>
+      <c r="I83" t="s">
+        <v>139</v>
+      </c>
+      <c r="K83" t="s">
+        <v>73</v>
+      </c>
+      <c r="L83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84">
+        <v>145</v>
+      </c>
+      <c r="C84" s="2">
+        <v>41903</v>
+      </c>
+      <c r="D84" s="2">
+        <v>41894</v>
+      </c>
+      <c r="E84" t="s">
+        <v>80</v>
+      </c>
+      <c r="F84" t="s">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s">
+        <v>76</v>
+      </c>
+      <c r="J84" t="s">
+        <v>139</v>
+      </c>
+      <c r="K84" t="s">
+        <v>73</v>
+      </c>
+      <c r="L84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85">
+        <v>136</v>
+      </c>
+      <c r="C85" s="2">
+        <v>41904</v>
+      </c>
+      <c r="D85" s="2">
+        <v>41895</v>
+      </c>
+      <c r="E85" t="s">
+        <v>80</v>
+      </c>
+      <c r="F85" t="s">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s">
+        <v>78</v>
+      </c>
+      <c r="J85" t="s">
+        <v>139</v>
+      </c>
+      <c r="K85" t="s">
+        <v>73</v>
+      </c>
+      <c r="L85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86">
+        <v>127</v>
+      </c>
+      <c r="C86" s="2">
+        <v>41905</v>
+      </c>
+      <c r="D86" s="2">
+        <v>41896</v>
+      </c>
+      <c r="E86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F86" t="s">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" t="s">
+        <v>139</v>
+      </c>
+      <c r="K86" t="s">
+        <v>73</v>
+      </c>
+      <c r="L86" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87">
+        <v>128</v>
+      </c>
+      <c r="C87" s="2">
+        <v>41906</v>
+      </c>
+      <c r="D87" s="2">
+        <v>41897</v>
+      </c>
+      <c r="E87" t="s">
+        <v>80</v>
+      </c>
+      <c r="F87" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s">
+        <v>74</v>
+      </c>
+      <c r="J87" t="s">
+        <v>139</v>
+      </c>
+      <c r="K87" t="s">
+        <v>73</v>
+      </c>
+      <c r="L87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88">
+        <v>123</v>
+      </c>
+      <c r="C88" s="2">
+        <v>41907</v>
+      </c>
+      <c r="D88" s="2">
+        <v>41898</v>
+      </c>
+      <c r="E88" t="s">
+        <v>80</v>
+      </c>
+      <c r="F88" t="s">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s">
+        <v>75</v>
+      </c>
+      <c r="I88" t="s">
+        <v>139</v>
+      </c>
+      <c r="K88" t="s">
+        <v>73</v>
+      </c>
+      <c r="L88" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89">
+        <v>123</v>
+      </c>
+      <c r="C89" s="2">
+        <v>41908</v>
+      </c>
+      <c r="D89" s="2">
+        <v>41899</v>
+      </c>
+      <c r="E89" t="s">
+        <v>80</v>
+      </c>
+      <c r="F89" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s">
+        <v>76</v>
+      </c>
+      <c r="J89" t="s">
+        <v>139</v>
+      </c>
+      <c r="K89" t="s">
+        <v>73</v>
+      </c>
+      <c r="L89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90">
+        <v>122</v>
+      </c>
+      <c r="C90" s="2">
+        <v>41909</v>
+      </c>
+      <c r="D90" s="2">
+        <v>41900</v>
+      </c>
+      <c r="E90" t="s">
+        <v>80</v>
+      </c>
+      <c r="F90" t="s">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s">
+        <v>78</v>
+      </c>
+      <c r="J90" t="s">
+        <v>139</v>
+      </c>
+      <c r="K90" t="s">
+        <v>73</v>
+      </c>
+      <c r="L90" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91">
+        <v>131</v>
+      </c>
+      <c r="C91" s="2">
+        <v>41910</v>
+      </c>
+      <c r="D91" s="2">
+        <v>41901</v>
+      </c>
+      <c r="E91" t="s">
+        <v>80</v>
+      </c>
+      <c r="F91" t="s">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" t="s">
+        <v>139</v>
+      </c>
+      <c r="K91" t="s">
+        <v>73</v>
+      </c>
+      <c r="L91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92">
+        <v>142</v>
+      </c>
+      <c r="C92" s="2">
+        <v>41911</v>
+      </c>
+      <c r="D92" s="2">
+        <v>41902</v>
+      </c>
+      <c r="E92" t="s">
+        <v>80</v>
+      </c>
+      <c r="F92" t="s">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s">
+        <v>74</v>
+      </c>
+      <c r="J92" t="s">
+        <v>139</v>
+      </c>
+      <c r="K92" t="s">
+        <v>73</v>
+      </c>
+      <c r="L92" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>173</v>
+      </c>
+      <c r="B93">
+        <v>151</v>
+      </c>
+      <c r="C93" s="2">
+        <v>41912</v>
+      </c>
+      <c r="D93" s="2">
+        <v>41903</v>
+      </c>
+      <c r="E93" t="s">
+        <v>80</v>
+      </c>
+      <c r="F93" t="s">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s">
+        <v>75</v>
+      </c>
+      <c r="I93" t="s">
+        <v>139</v>
+      </c>
+      <c r="K93" t="s">
+        <v>73</v>
+      </c>
+      <c r="L93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>174</v>
+      </c>
+      <c r="B94">
+        <v>121</v>
+      </c>
+      <c r="C94" s="2">
+        <v>41913</v>
+      </c>
+      <c r="D94" s="2">
+        <v>41904</v>
+      </c>
+      <c r="E94" t="s">
+        <v>80</v>
+      </c>
+      <c r="F94" t="s">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s">
+        <v>76</v>
+      </c>
+      <c r="J94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K94" t="s">
+        <v>73</v>
+      </c>
+      <c r="L94" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>175</v>
+      </c>
+      <c r="B95">
+        <v>141</v>
+      </c>
+      <c r="C95" s="2">
+        <v>41914</v>
+      </c>
+      <c r="D95" s="2">
+        <v>41905</v>
+      </c>
+      <c r="E95" t="s">
+        <v>80</v>
+      </c>
+      <c r="F95" t="s">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s">
+        <v>139</v>
+      </c>
+      <c r="K95" t="s">
+        <v>73</v>
+      </c>
+      <c r="L95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96">
+        <v>164</v>
+      </c>
+      <c r="C96" s="2">
+        <v>41915</v>
+      </c>
+      <c r="D96" s="2">
+        <v>41906</v>
+      </c>
+      <c r="E96" t="s">
+        <v>80</v>
+      </c>
+      <c r="F96" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" t="s">
+        <v>139</v>
+      </c>
+      <c r="K96" t="s">
+        <v>73</v>
+      </c>
+      <c r="L96" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97">
+        <v>171</v>
+      </c>
+      <c r="C97" s="2">
+        <v>41916</v>
+      </c>
+      <c r="D97" s="2">
+        <v>41907</v>
+      </c>
+      <c r="E97" t="s">
+        <v>80</v>
+      </c>
+      <c r="F97" t="s">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s">
+        <v>74</v>
+      </c>
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+      <c r="K97" t="s">
+        <v>73</v>
+      </c>
+      <c r="L97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98">
+        <v>145</v>
+      </c>
+      <c r="C98" s="2">
+        <v>41917</v>
+      </c>
+      <c r="D98" s="2">
+        <v>41908</v>
+      </c>
+      <c r="E98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F98" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s">
+        <v>75</v>
+      </c>
+      <c r="I98" t="s">
+        <v>139</v>
+      </c>
+      <c r="K98" t="s">
+        <v>73</v>
+      </c>
+      <c r="L98" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99">
+        <v>136</v>
+      </c>
+      <c r="C99" s="2">
+        <v>41918</v>
+      </c>
+      <c r="D99" s="2">
+        <v>41909</v>
+      </c>
+      <c r="E99" t="s">
+        <v>80</v>
+      </c>
+      <c r="F99" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s">
+        <v>76</v>
+      </c>
+      <c r="J99" t="s">
+        <v>139</v>
+      </c>
+      <c r="K99" t="s">
+        <v>73</v>
+      </c>
+      <c r="L99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>180</v>
+      </c>
+      <c r="B100">
+        <v>127</v>
+      </c>
+      <c r="C100" s="2">
+        <v>41919</v>
+      </c>
+      <c r="D100" s="2">
+        <v>41910</v>
+      </c>
+      <c r="E100" t="s">
+        <v>80</v>
+      </c>
+      <c r="F100" t="s">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s">
+        <v>76</v>
+      </c>
+      <c r="J100" t="s">
+        <v>139</v>
+      </c>
+      <c r="K100" t="s">
+        <v>73</v>
+      </c>
+      <c r="L100" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
